--- a/kittyserver/gametools/parseExcelTool/Excel/SystemEmail.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/SystemEmail.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,17 +422,6 @@
   </si>
   <si>
     <t>systemmail_text_33</t>
-  </si>
-  <si>
-    <t>systemmail_text_34</t>
-  </si>
-  <si>
-    <t>兑换激活码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>systemmail_title_34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -508,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,9 +518,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -826,13 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1382,20 +1368,6 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="8">
-        <v>34</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
